--- a/biology/Botanique/Ramondie_des_Pyrénées/Ramondie_des_Pyrénées.xlsx
+++ b/biology/Botanique/Ramondie_des_Pyrénées/Ramondie_des_Pyrénées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Ramondie_des_Pyrénées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ramonda myconi
 La ramondie des Pyrénées ou ramonde des Pyrénées (Ramonda myconi (L.) Rchb., 1831) est une plante herbacée de la famille des Gesnériacées. C'est une plante endémique du massif pyrénéen.
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Ramondie_des_Pyrénées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette petite plante est haute de 5 à 15 cm.
 Elle forme une rosette aplatie de feuilles ovales, à pétiole court, à limbe profondément crénelé, velu et gaufré, portant de longs poils couleur rouille à la face inférieure.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Ramondie_des_Pyrénées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De mai à août.
 </t>
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
+          <t>Ramondie_des_Pyrénées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,23 +596,60 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rochers calcaires ombragés entre 800 et 2 000 m (rare). La ramondie est un des rares angiospermes capable de reviviscence (capacité à se déshydrater et s'hydrater de façon réversible)[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rochers calcaires ombragés entre 800 et 2 000 m (rare). La ramondie est un des rares angiospermes capable de reviviscence (capacité à se déshydrater et s'hydrater de façon réversible).
 Dans les Pyrénées ariégeoises, l'habitat de prédilection se situe vers 1 000 m sur des escarpements schisteux humides en sous-bois.
 			Ramonda myconi au Jardin botanique alpin La Jaÿsinia
 			Ramonda myconi au Muséum d'histoire naturelle de Toulouse
 Cette plante est considérée comme un " fossile vivant ".
-Autres " fossiles vivants " de sa famille
-Les gesnériacées sont une grande famille tropicale, qui était aussi répandue en Europe au cours de l’ère tertiaire. Seules quatre autres espèces — toutes endémiques des Balkans — ont pu survivre à la glaciation[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ramondie_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres " fossiles vivants " de sa famille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les gesnériacées sont une grande famille tropicale, qui était aussi répandue en Europe au cours de l’ère tertiaire. Seules quatre autres espèces — toutes endémiques des Balkans — ont pu survivre à la glaciation :
 deux autres espèces du genre Ramonda :
-Ramonda nathaliae Pančić &amp; Petr. à fleurs généralement à 4 pétales[3],
-Ramonda serbica Pančić à corolle légèrement campanulée[4] ;
+Ramonda nathaliae Pančić &amp; Petr. à fleurs généralement à 4 pétales,
+Ramonda serbica Pančić à corolle légèrement campanulée ;
 une espèce du genre Haberlea avec une variété :
-Haberlea rhodopensis Friv[5].
-var. ferdinandi-coburgii (Urum.) Markova (Syn. Haberlea ferdinandi-coburgii Urum.)[6] ;
+Haberlea rhodopensis Friv.
+var. ferdinandi-coburgii (Urum.) Markova (Syn. Haberlea ferdinandi-coburgii Urum.) ;
 une espèce du genre Jancaea :
-Jancaea heldreichii (Boiss.) Boiss., endémique du mont Olympe[7].
+Jancaea heldreichii (Boiss.) Boiss., endémique du mont Olympe.
 			Ramonda nathaliae
 			Ramonda serbica
 			Haberlea rhodopensis en Bulgarie
@@ -605,31 +658,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ramondie_des_Pyrénées</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ramondie_des_Pyr%C3%A9n%C3%A9es</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ J.L. Guignard, Abrégé de Botanique, p. 24, Masson, 1986
